--- a/COVARIANCE_CORRELATION.xlsx
+++ b/COVARIANCE_CORRELATION.xlsx
@@ -310,11 +310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247088256"/>
-        <c:axId val="240377856"/>
+        <c:axId val="249018624"/>
+        <c:axId val="249262080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247088256"/>
+        <c:axId val="249018624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,12 +324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240377856"/>
+        <c:crossAx val="249262080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240377856"/>
+        <c:axId val="249262080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247088256"/>
+        <c:crossAx val="249018624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247113984"/>
-        <c:axId val="247081984"/>
+        <c:axId val="286225152"/>
+        <c:axId val="286226688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247113984"/>
+        <c:axId val="286225152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,12 +506,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247081984"/>
+        <c:crossAx val="286226688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247081984"/>
+        <c:axId val="286226688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247113984"/>
+        <c:crossAx val="286225152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -894,7 +894,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,11 +1445,11 @@
         <v>20.25</v>
       </c>
       <c r="J18">
-        <f>E3</f>
+        <f t="shared" ref="J18:J27" si="9">E3</f>
         <v>-4.5</v>
       </c>
       <c r="K18">
-        <f>K3</f>
+        <f t="shared" ref="K18:K27" si="10">K3</f>
         <v>4.5</v>
       </c>
       <c r="L18">
@@ -1459,235 +1459,235 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f t="shared" ref="E19:E27" si="9">E4</f>
+        <f t="shared" ref="E19:E27" si="11">E4</f>
         <v>-3.5</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F27" si="10">H4</f>
+        <f t="shared" ref="F19:F27" si="12">H4</f>
         <v>-3.5</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G27" si="11">E19*F19</f>
+        <f t="shared" ref="G19:G27" si="13">E19*F19</f>
         <v>12.25</v>
       </c>
       <c r="J19">
-        <f>E4</f>
+        <f t="shared" si="9"/>
         <v>-3.5</v>
       </c>
       <c r="K19">
-        <f>K4</f>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L27" si="12">J19*K19</f>
+        <f t="shared" ref="L19:L27" si="14">J19*K19</f>
         <v>-12.25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E20">
+        <f t="shared" si="11"/>
+        <v>-2.5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="12"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="13"/>
+        <v>6.25</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="9"/>
         <v>-2.5</v>
       </c>
-      <c r="F20">
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="14"/>
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="11"/>
+        <v>-1.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="12"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="13"/>
+        <v>2.25</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>-1.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="14"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="12"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="14"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>-0.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="13"/>
+        <v>2.25</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>-1.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="14"/>
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="13"/>
+        <v>6.25</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="10"/>
         <v>-2.5</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="11"/>
-        <v>6.25</v>
-      </c>
-      <c r="J20">
-        <f>E5</f>
-        <v>-2.5</v>
-      </c>
-      <c r="K20">
-        <f>K5</f>
-        <v>2.5</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="12"/>
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f t="shared" si="9"/>
-        <v>-1.5</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="10"/>
-        <v>-1.5</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="11"/>
-        <v>2.25</v>
-      </c>
-      <c r="J21">
-        <f>E6</f>
-        <v>-1.5</v>
-      </c>
-      <c r="K21">
-        <f>K6</f>
-        <v>1.5</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="12"/>
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f t="shared" si="9"/>
-        <v>-0.5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="10"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="J22">
-        <f>E7</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K22">
-        <f>K7</f>
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="12"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-      <c r="J23">
-        <f>E8</f>
-        <v>0.5</v>
-      </c>
-      <c r="K23">
-        <f>K8</f>
-        <v>-0.5</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="12"/>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="11"/>
-        <v>2.25</v>
-      </c>
-      <c r="J24">
-        <f>E9</f>
-        <v>1.5</v>
-      </c>
-      <c r="K24">
-        <f>K9</f>
-        <v>-1.5</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="12"/>
-        <v>-2.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="10"/>
-        <v>2.5</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="11"/>
-        <v>6.25</v>
-      </c>
-      <c r="J25">
-        <f>E10</f>
-        <v>2.5</v>
-      </c>
-      <c r="K25">
-        <f>K10</f>
-        <v>-2.5</v>
-      </c>
       <c r="L25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6.25</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="13"/>
+        <v>12.25</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
-      <c r="F26">
+      <c r="K26">
         <f t="shared" si="10"/>
-        <v>3.5</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="11"/>
-        <v>12.25</v>
-      </c>
-      <c r="J26">
-        <f>E11</f>
-        <v>3.5</v>
-      </c>
-      <c r="K26">
-        <f>K11</f>
         <v>-3.5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-12.25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="13"/>
+        <v>20.25</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
-      <c r="F27">
+      <c r="K27">
         <f t="shared" si="10"/>
-        <v>4.5</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="11"/>
-        <v>20.25</v>
-      </c>
-      <c r="J27">
-        <f>E12</f>
-        <v>4.5</v>
-      </c>
-      <c r="K27">
-        <f>K12</f>
         <v>-4.5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-20.25</v>
       </c>
     </row>
@@ -1816,15 +1816,15 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A3*100</f>
+        <f t="shared" ref="A38:C47" si="15">A3*100</f>
         <v>100</v>
       </c>
       <c r="B38">
-        <f>B3*100</f>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="C38">
-        <f>C3*100</f>
+        <f t="shared" si="15"/>
         <v>-100</v>
       </c>
       <c r="E38">
@@ -1854,343 +1854,343 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A4*100</f>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="B39">
-        <f>B4*100</f>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="C39">
-        <f>C4*100</f>
+        <f t="shared" si="15"/>
         <v>-200</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E47" si="13">A39-$A$48</f>
+        <f t="shared" ref="E39:E47" si="16">A39-$A$48</f>
         <v>-350</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F47" si="14">E39^2</f>
+        <f t="shared" ref="F39:F47" si="17">E39^2</f>
         <v>122500</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39:H47" si="15">B39-$B$48</f>
+        <f t="shared" ref="H39:H47" si="18">B39-$B$48</f>
         <v>-350</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I47" si="16">H39^2</f>
+        <f t="shared" ref="I39:I47" si="19">H39^2</f>
         <v>122500</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39:K47" si="17">C39-$C$48</f>
+        <f t="shared" ref="K39:K47" si="20">C39-$C$48</f>
         <v>350</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L47" si="18">K39^2</f>
+        <f t="shared" ref="L39:L47" si="21">K39^2</f>
         <v>122500</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A5*100</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="B40">
-        <f>B5*100</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="C40">
-        <f>C5*100</f>
+        <f t="shared" si="15"/>
         <v>-300</v>
       </c>
       <c r="E40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-250</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>62500</v>
       </c>
       <c r="H40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-250</v>
       </c>
       <c r="I40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62500</v>
       </c>
       <c r="K40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>250</v>
       </c>
       <c r="L40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>62500</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A6*100</f>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="B41">
-        <f>B6*100</f>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="C41">
-        <f>C6*100</f>
+        <f t="shared" si="15"/>
         <v>-400</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-150</v>
       </c>
       <c r="F41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22500</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-150</v>
       </c>
       <c r="I41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22500</v>
       </c>
       <c r="K41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="L41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22500</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A7*100</f>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="B42">
-        <f>B7*100</f>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="C42">
-        <f>C7*100</f>
+        <f t="shared" si="15"/>
         <v>-500</v>
       </c>
       <c r="E42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-50</v>
       </c>
       <c r="F42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2500</v>
       </c>
       <c r="H42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-50</v>
       </c>
       <c r="I42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2500</v>
       </c>
       <c r="K42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="L42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A8*100</f>
+        <f t="shared" si="15"/>
         <v>600</v>
       </c>
       <c r="B43">
-        <f>B8*100</f>
+        <f t="shared" si="15"/>
         <v>600</v>
       </c>
       <c r="C43">
-        <f>C8*100</f>
+        <f t="shared" si="15"/>
         <v>-600</v>
       </c>
       <c r="E43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="F43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2500</v>
       </c>
       <c r="H43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2500</v>
       </c>
       <c r="K43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-50</v>
       </c>
       <c r="L43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2500</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A9*100</f>
+        <f t="shared" si="15"/>
         <v>700</v>
       </c>
       <c r="B44">
-        <f>B9*100</f>
+        <f t="shared" si="15"/>
         <v>700</v>
       </c>
       <c r="C44">
-        <f>C9*100</f>
+        <f t="shared" si="15"/>
         <v>-700</v>
       </c>
       <c r="E44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="F44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22500</v>
       </c>
       <c r="H44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>150</v>
       </c>
       <c r="I44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22500</v>
       </c>
       <c r="K44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-150</v>
       </c>
       <c r="L44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22500</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A10*100</f>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="B45">
-        <f>B10*100</f>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="C45">
-        <f>C10*100</f>
+        <f t="shared" si="15"/>
         <v>-800</v>
       </c>
       <c r="E45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="F45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>62500</v>
       </c>
       <c r="H45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>250</v>
       </c>
       <c r="I45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>62500</v>
       </c>
       <c r="K45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-250</v>
       </c>
       <c r="L45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>62500</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A11*100</f>
+        <f t="shared" si="15"/>
         <v>900</v>
       </c>
       <c r="B46">
-        <f>B11*100</f>
+        <f t="shared" si="15"/>
         <v>900</v>
       </c>
       <c r="C46">
-        <f>C11*100</f>
+        <f t="shared" si="15"/>
         <v>-900</v>
       </c>
       <c r="E46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>350</v>
       </c>
       <c r="F46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>122500</v>
       </c>
       <c r="H46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
       <c r="I46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>122500</v>
       </c>
       <c r="K46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-350</v>
       </c>
       <c r="L46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>122500</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>A12*100</f>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="B47">
-        <f>B12*100</f>
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
       <c r="C47">
-        <f>C12*100</f>
+        <f t="shared" si="15"/>
         <v>-1000</v>
       </c>
       <c r="E47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="F47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>202500</v>
       </c>
       <c r="H47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="I47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>202500</v>
       </c>
       <c r="K47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-450</v>
       </c>
       <c r="L47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>202500</v>
       </c>
     </row>
@@ -2200,11 +2200,11 @@
         <v>550</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="19">AVERAGE(B38:B47)</f>
+        <f t="shared" ref="B48" si="22">AVERAGE(B38:B47)</f>
         <v>550</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48" si="20">AVERAGE(C38:C47)</f>
+        <f t="shared" ref="C48" si="23">AVERAGE(C38:C47)</f>
         <v>-550</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2321,11 +2321,11 @@
         <v>202500</v>
       </c>
       <c r="J53">
-        <f>E38</f>
+        <f t="shared" ref="J53:J62" si="24">E38</f>
         <v>-450</v>
       </c>
       <c r="K53">
-        <f>K38</f>
+        <f t="shared" ref="K53:K62" si="25">K38</f>
         <v>450</v>
       </c>
       <c r="L53">
@@ -2335,235 +2335,235 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E54">
-        <f t="shared" ref="E54:E62" si="21">E39</f>
+        <f t="shared" ref="E54:E62" si="26">E39</f>
         <v>-350</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F62" si="22">H39</f>
+        <f t="shared" ref="F54:F62" si="27">H39</f>
         <v>-350</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54:G62" si="23">E54*F54</f>
+        <f t="shared" ref="G54:G62" si="28">E54*F54</f>
         <v>122500</v>
       </c>
       <c r="J54">
-        <f>E39</f>
+        <f t="shared" si="24"/>
         <v>-350</v>
       </c>
       <c r="K54">
-        <f>K39</f>
+        <f t="shared" si="25"/>
         <v>350</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:L62" si="24">J54*K54</f>
+        <f t="shared" ref="L54:L62" si="29">J54*K54</f>
         <v>-122500</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-250</v>
       </c>
       <c r="F55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-250</v>
       </c>
       <c r="G55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>62500</v>
       </c>
       <c r="J55">
-        <f>E40</f>
+        <f t="shared" si="24"/>
         <v>-250</v>
       </c>
       <c r="K55">
-        <f>K40</f>
+        <f t="shared" si="25"/>
         <v>250</v>
       </c>
       <c r="L55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-62500</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-150</v>
       </c>
       <c r="F56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-150</v>
       </c>
       <c r="G56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>22500</v>
       </c>
       <c r="J56">
-        <f>E41</f>
+        <f t="shared" si="24"/>
         <v>-150</v>
       </c>
       <c r="K56">
-        <f>K41</f>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="L56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-22500</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-50</v>
       </c>
       <c r="F57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-50</v>
       </c>
       <c r="G57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2500</v>
       </c>
       <c r="J57">
-        <f>E42</f>
+        <f t="shared" si="24"/>
         <v>-50</v>
       </c>
       <c r="K57">
-        <f>K42</f>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-2500</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="F58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="G58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2500</v>
       </c>
       <c r="J58">
-        <f>E43</f>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="K58">
-        <f>K43</f>
+        <f t="shared" si="25"/>
         <v>-50</v>
       </c>
       <c r="L58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-2500</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>150</v>
       </c>
       <c r="F59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>150</v>
       </c>
       <c r="G59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>22500</v>
       </c>
       <c r="J59">
-        <f>E44</f>
+        <f t="shared" si="24"/>
         <v>150</v>
       </c>
       <c r="K59">
-        <f>K44</f>
+        <f t="shared" si="25"/>
         <v>-150</v>
       </c>
       <c r="L59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-22500</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>250</v>
       </c>
       <c r="F60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>250</v>
       </c>
       <c r="G60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>62500</v>
       </c>
       <c r="J60">
-        <f>E45</f>
+        <f t="shared" si="24"/>
         <v>250</v>
       </c>
       <c r="K60">
-        <f>K45</f>
+        <f t="shared" si="25"/>
         <v>-250</v>
       </c>
       <c r="L60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-62500</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>350</v>
       </c>
       <c r="F61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>350</v>
       </c>
       <c r="G61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>122500</v>
       </c>
       <c r="J61">
-        <f>E46</f>
+        <f t="shared" si="24"/>
         <v>350</v>
       </c>
       <c r="K61">
-        <f>K46</f>
+        <f t="shared" si="25"/>
         <v>-350</v>
       </c>
       <c r="L61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-122500</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="F62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>450</v>
       </c>
       <c r="G62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>202500</v>
       </c>
       <c r="J62">
-        <f>E47</f>
+        <f t="shared" si="24"/>
         <v>450</v>
       </c>
       <c r="K62">
-        <f>K47</f>
+        <f t="shared" si="25"/>
         <v>-450</v>
       </c>
       <c r="L62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-202500</v>
       </c>
     </row>
